--- a/biology/Botanique/Ravensara/Ravensara.xlsx
+++ b/biology/Botanique/Ravensara/Ravensara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ravensara est un genre d'arbres et d'arbustes appartenant à la famille des lauriers (Lauraceae). Le genre est composé d'espèces originaires de Madagascar (régions du centre et de l'est) qui produisent des huiles essentielles à partir de leurs écorces, de leurs feuilles ou de leurs fruits. Au début du XXIe siècle, les botanistes classent de préférence ces plantes dans le genre Cryptocarya R. Br.[1].
-L'espèce de Ravensara la plus connue est Ravensara aromatica Sonn. (synonyme de Cryptocarya agathophylla van der Werff.[2]), dont l'huile essentielle extraite des feuilles est utilisée pour ses propriétés médicinales. À Madagascar cet arbre est appelé communément « Hazomanitra » (arbre qui sent) et on désigne son écorce utilisée dans des rituels sous le nom de « Havozo »[3].
-Il ne faut pas confondre l'huile essentielle obtenue à partir du Ravensare aromatique (Ravensara aromatica), du genre Ravensara, avec le ravintsare produit par le Camphrier (Cinnamomum camphora), un arbre d'origine asiatique acclimaté à Madagascar[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ravensara est un genre d'arbres et d'arbustes appartenant à la famille des lauriers (Lauraceae). Le genre est composé d'espèces originaires de Madagascar (régions du centre et de l'est) qui produisent des huiles essentielles à partir de leurs écorces, de leurs feuilles ou de leurs fruits. Au début du XXIe siècle, les botanistes classent de préférence ces plantes dans le genre Cryptocarya R. Br..
+L'espèce de Ravensara la plus connue est Ravensara aromatica Sonn. (synonyme de Cryptocarya agathophylla van der Werff.), dont l'huile essentielle extraite des feuilles est utilisée pour ses propriétés médicinales. À Madagascar cet arbre est appelé communément « Hazomanitra » (arbre qui sent) et on désigne son écorce utilisée dans des rituels sous le nom de « Havozo ».
+Il ne faut pas confondre l'huile essentielle obtenue à partir du Ravensare aromatique (Ravensara aromatica), du genre Ravensara, avec le ravintsare produit par le Camphrier (Cinnamomum camphora), un arbre d'origine asiatique acclimaté à Madagascar.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (8 septembre 2015)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (8 septembre 2015) :
 Ravensara acutifolia Kosterm.
 Ravensara affinis Kosterm.
 Ravensara areolata Kosterm.
@@ -533,7 +547,7 @@
 Ravensara perareolata Kosterm.
 Ravensara perrieri Dubard &amp; Dop
 Ravensara polyneura Kosterm.
-Selon Tropicos                                           (8 septembre 2015)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (8 septembre 2015) (Attention liste brute contenant possiblement des synonymes) :
 Ravensara acuminata (Willd. ex Meisn.) Baill.
 Ravensara acutifolia Kosterm.
 Ravensara affinis Kosterm.
